--- a/simulation_data/one_step_algorithm/1s_error_level_6_percent_water_40.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_6_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.1124124569325</v>
+        <v>89.99208333597977</v>
       </c>
       <c r="D2" t="n">
-        <v>1.317253571567025</v>
+        <v>1.402118759937049</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.97243442896981</v>
+        <v>89.03034543381402</v>
       </c>
       <c r="D3" t="n">
-        <v>1.462151693705935</v>
+        <v>1.450155051439155</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.94877899863457</v>
+        <v>88.09264404403194</v>
       </c>
       <c r="D4" t="n">
-        <v>1.291551855338617</v>
+        <v>1.393235381485416</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.0336812069223</v>
+        <v>87.14651113392098</v>
       </c>
       <c r="D5" t="n">
-        <v>1.289143641807215</v>
+        <v>1.696834552499963</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.71431406603313</v>
+        <v>85.82716157079642</v>
       </c>
       <c r="D6" t="n">
-        <v>1.237175253947999</v>
+        <v>1.537492130238555</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.88700220944165</v>
+        <v>85.10523065724237</v>
       </c>
       <c r="D7" t="n">
-        <v>1.617994701143423</v>
+        <v>1.461657704330085</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.1044407777599</v>
+        <v>84.08404350733073</v>
       </c>
       <c r="D8" t="n">
-        <v>1.579062100697165</v>
+        <v>1.239257368817229</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.07121125763884</v>
+        <v>82.85751196428049</v>
       </c>
       <c r="D9" t="n">
-        <v>1.453834523505521</v>
+        <v>1.383970507201119</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.01228773417111</v>
+        <v>82.00828160621994</v>
       </c>
       <c r="D10" t="n">
-        <v>1.274706895689593</v>
+        <v>1.636382669386661</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.02803905515511</v>
+        <v>81.03139510261522</v>
       </c>
       <c r="D11" t="n">
-        <v>1.467753913516879</v>
+        <v>1.574304213300496</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.05472274896017</v>
+        <v>79.80445027457125</v>
       </c>
       <c r="D12" t="n">
-        <v>1.528658197291698</v>
+        <v>1.745996289453822</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.71298369565014</v>
+        <v>78.96276125933639</v>
       </c>
       <c r="D13" t="n">
-        <v>1.432973672522343</v>
+        <v>1.668774178323016</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.97378043190716</v>
+        <v>77.66922370569573</v>
       </c>
       <c r="D14" t="n">
-        <v>1.439461639492194</v>
+        <v>1.544145484022581</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.92387692333091</v>
+        <v>76.96784693790227</v>
       </c>
       <c r="D15" t="n">
-        <v>1.597445649982422</v>
+        <v>1.656340628181082</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.13223022762747</v>
+        <v>75.77828384265794</v>
       </c>
       <c r="D16" t="n">
-        <v>1.589954492338067</v>
+        <v>1.723158076247453</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.8086645950242</v>
+        <v>74.63975544907605</v>
       </c>
       <c r="D17" t="n">
-        <v>1.536412670246848</v>
+        <v>1.594212496996033</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.1093818116548</v>
+        <v>74.24383027074424</v>
       </c>
       <c r="D18" t="n">
-        <v>1.543265851350934</v>
+        <v>1.512940905279805</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.87289286544024</v>
+        <v>72.72915147089496</v>
       </c>
       <c r="D19" t="n">
-        <v>1.75664042216241</v>
+        <v>1.781544726134518</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.5135104402013</v>
+        <v>72.12509571803794</v>
       </c>
       <c r="D20" t="n">
-        <v>1.638547345922037</v>
+        <v>1.640841321332769</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.90397223151369</v>
+        <v>70.75904373453751</v>
       </c>
       <c r="D21" t="n">
-        <v>1.643924021442219</v>
+        <v>1.514467153257164</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.3562754991321</v>
+        <v>69.9517826746292</v>
       </c>
       <c r="D22" t="n">
-        <v>1.781430180532283</v>
+        <v>1.748267905660989</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.06464401824911</v>
+        <v>68.88747032094514</v>
       </c>
       <c r="D23" t="n">
-        <v>1.659830437786949</v>
+        <v>1.875125899005395</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.9535398142994</v>
+        <v>68.05204290993456</v>
       </c>
       <c r="D24" t="n">
-        <v>1.772375267027771</v>
+        <v>1.613509089043977</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.70286657330648</v>
+        <v>67.04859036269777</v>
       </c>
       <c r="D25" t="n">
-        <v>1.958467790604129</v>
+        <v>1.635054186286964</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.0487088075881</v>
+        <v>65.96343115302749</v>
       </c>
       <c r="D26" t="n">
-        <v>1.754290196211392</v>
+        <v>1.809913876866699</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.14574965198055</v>
+        <v>64.90921274896195</v>
       </c>
       <c r="D27" t="n">
-        <v>1.739178533207577</v>
+        <v>1.789792674712825</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.83259760958942</v>
+        <v>63.95035284158812</v>
       </c>
       <c r="D28" t="n">
-        <v>1.984760112055508</v>
+        <v>1.683964013362998</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.37361683007356</v>
+        <v>62.84257227085391</v>
       </c>
       <c r="D29" t="n">
-        <v>1.994727275559012</v>
+        <v>1.658899492314261</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.06771579030919</v>
+        <v>62.13578219842056</v>
       </c>
       <c r="D30" t="n">
-        <v>1.90028472862986</v>
+        <v>1.665147502610786</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.91412926449217</v>
+        <v>61.11592233508444</v>
       </c>
       <c r="D31" t="n">
-        <v>1.811374349067085</v>
+        <v>1.722786788049789</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.11751226759471</v>
+        <v>60.05700744425618</v>
       </c>
       <c r="D32" t="n">
-        <v>1.683852701491396</v>
+        <v>2.008819548512199</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.7341682665873</v>
+        <v>58.93237034087866</v>
       </c>
       <c r="D33" t="n">
-        <v>1.970543319157576</v>
+        <v>1.779902548493496</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.3402714215166</v>
+        <v>57.96496556356605</v>
       </c>
       <c r="D34" t="n">
-        <v>1.719692181466137</v>
+        <v>1.878497421115402</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.91150710810887</v>
+        <v>56.98620165329699</v>
       </c>
       <c r="D35" t="n">
-        <v>2.038852357903252</v>
+        <v>2.240152642059977</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.14375179652962</v>
+        <v>55.92201794504344</v>
       </c>
       <c r="D36" t="n">
-        <v>1.748221460653451</v>
+        <v>1.797034248770613</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.82556000861644</v>
+        <v>55.00850208320898</v>
       </c>
       <c r="D37" t="n">
-        <v>1.765113453274984</v>
+        <v>2.241263757950014</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.94149813216841</v>
+        <v>54.02359547833115</v>
       </c>
       <c r="D38" t="n">
-        <v>1.980376512747207</v>
+        <v>1.889904485989719</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.12319002959138</v>
+        <v>53.3464317797825</v>
       </c>
       <c r="D39" t="n">
-        <v>1.854022136295937</v>
+        <v>1.944412041986146</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.24931584657388</v>
+        <v>52.34636194963404</v>
       </c>
       <c r="D40" t="n">
-        <v>2.111597061534907</v>
+        <v>2.041462716613404</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.49729358558754</v>
+        <v>51.02143351776691</v>
       </c>
       <c r="D41" t="n">
-        <v>1.978582873075523</v>
+        <v>1.652356758602278</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.49869607532167</v>
+        <v>49.92391659299142</v>
       </c>
       <c r="D42" t="n">
-        <v>2.12167579429773</v>
+        <v>1.829981592288738</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.11198532189471</v>
+        <v>48.89954047366927</v>
       </c>
       <c r="D43" t="n">
-        <v>1.800939109581306</v>
+        <v>1.912761568817871</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.14613174156872</v>
+        <v>47.89104714675262</v>
       </c>
       <c r="D44" t="n">
-        <v>2.251142752397718</v>
+        <v>2.000498700471153</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.4764337592778</v>
+        <v>47.20041854997888</v>
       </c>
       <c r="D45" t="n">
-        <v>2.135579308309627</v>
+        <v>2.316083404694654</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.68533074501465</v>
+        <v>45.98798520924939</v>
       </c>
       <c r="D46" t="n">
-        <v>2.076843038177754</v>
+        <v>2.133400456407784</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.24693249249272</v>
+        <v>44.89017013752593</v>
       </c>
       <c r="D47" t="n">
-        <v>2.106486979781399</v>
+        <v>1.96189441547789</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.01199717053367</v>
+        <v>43.86767069366458</v>
       </c>
       <c r="D48" t="n">
-        <v>2.159604325022421</v>
+        <v>1.939704387700226</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.40126359121985</v>
+        <v>43.20343753216559</v>
       </c>
       <c r="D49" t="n">
-        <v>1.92349106317868</v>
+        <v>2.439407132833287</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.64992779357633</v>
+        <v>42.10906055365975</v>
       </c>
       <c r="D50" t="n">
-        <v>2.259019224872723</v>
+        <v>1.964415745396581</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.70869347697186</v>
+        <v>40.74259473223688</v>
       </c>
       <c r="D51" t="n">
-        <v>2.080721786041518</v>
+        <v>1.799049473667913</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.54029432134053</v>
+        <v>40.05514807708029</v>
       </c>
       <c r="D52" t="n">
-        <v>2.272620759124001</v>
+        <v>2.2746367455706</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.19121207283027</v>
+        <v>38.83747072258334</v>
       </c>
       <c r="D53" t="n">
-        <v>2.557170844281641</v>
+        <v>2.158327542940335</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.16167849390281</v>
+        <v>37.997995262891</v>
       </c>
       <c r="D54" t="n">
-        <v>2.058937805530033</v>
+        <v>2.146385881105747</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.71674897213781</v>
+        <v>36.66543680404628</v>
       </c>
       <c r="D55" t="n">
-        <v>2.241173411865461</v>
+        <v>2.050486519135383</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.11321451893073</v>
+        <v>36.07372116353303</v>
       </c>
       <c r="D56" t="n">
-        <v>2.134263979275752</v>
+        <v>2.292976469235927</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.53376902753061</v>
+        <v>35.02988063770695</v>
       </c>
       <c r="D57" t="n">
-        <v>2.31440404086746</v>
+        <v>2.249335828567587</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.38043832787637</v>
+        <v>33.71322477425362</v>
       </c>
       <c r="D58" t="n">
-        <v>2.014993902309167</v>
+        <v>2.36829630863175</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.04948161917437</v>
+        <v>33.20308214998036</v>
       </c>
       <c r="D59" t="n">
-        <v>2.483607797109089</v>
+        <v>2.544873159023092</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.93572384319552</v>
+        <v>31.7202039833517</v>
       </c>
       <c r="D60" t="n">
-        <v>2.477816962036345</v>
+        <v>2.170629885467837</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.81519924037144</v>
+        <v>30.95752011364875</v>
       </c>
       <c r="D61" t="n">
-        <v>2.290557868218858</v>
+        <v>2.59365903478771</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.22053880612452</v>
+        <v>29.83819205480422</v>
       </c>
       <c r="D62" t="n">
-        <v>2.176608140163928</v>
+        <v>2.208871703689433</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.51366037388094</v>
+        <v>29.02909951647412</v>
       </c>
       <c r="D63" t="n">
-        <v>2.200044800572628</v>
+        <v>2.562248916307807</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.41770264872264</v>
+        <v>28.1814070361309</v>
       </c>
       <c r="D64" t="n">
-        <v>2.339930733129796</v>
+        <v>2.519336489259979</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.9026160920984</v>
+        <v>26.81792867111644</v>
       </c>
       <c r="D65" t="n">
-        <v>2.375711156581974</v>
+        <v>2.175124043394979</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.09267432519653</v>
+        <v>26.22313029996799</v>
       </c>
       <c r="D66" t="n">
-        <v>2.666307612161079</v>
+        <v>2.010512431028894</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.83278565371507</v>
+        <v>25.01197231008858</v>
       </c>
       <c r="D67" t="n">
-        <v>2.624185986753329</v>
+        <v>2.347132647422205</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.2368926088506</v>
+        <v>24.09426070220552</v>
       </c>
       <c r="D68" t="n">
-        <v>2.22007302167712</v>
+        <v>2.448954220111199</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.69808250314485</v>
+        <v>23.00036834158355</v>
       </c>
       <c r="D69" t="n">
-        <v>2.687828583554773</v>
+        <v>2.493190873127138</v>
       </c>
     </row>
   </sheetData>
